--- a/result/0-shot/Baichuan-13B/extract/singledrug(type)/extract.xlsx
+++ b/result/0-shot/Baichuan-13B/extract/singledrug(type)/extract.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>（G）二氢吡啶类CCB</t>
+          <t>（C）非二氢吡啶类CCB</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>（A）单氧化酶抑制剂</t>
+          <t>（A）</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>（B）噻嗪类利尿剂</t>
+          <t>（A）</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>（A）肾素抑制剂</t>
+          <t>（D）ARB</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>（A）ACEI</t>
+          <t>（A）</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>（A）α受体阻滞剂</t>
+          <t>（C）二氢吡啶类CCB</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -641,12 +641,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>（A）保钾利尿剂</t>
+          <t>（C）β受体阻滞剂</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
